--- a/input data/Template.xlsx
+++ b/input data/Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -69,18 +69,6 @@
   </si>
   <si>
     <t>2-я смена</t>
-  </si>
-  <si>
-    <t>Водопропускное сооружение В-1</t>
-  </si>
-  <si>
-    <t>Би.Си.Си ООО</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09:00   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18:00</t>
   </si>
 </sst>
 </file>
@@ -90,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;на&quot;\ [$-FC19]\«d\»\ mmmm\ yyyy\ &quot;года&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,19 +121,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -190,43 +165,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,148 +483,117 @@
     <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="4" customWidth="1"/>
     <col min="8" max="9" width="6.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15">
+      <c r="A6" s="10">
         <v>43431</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A10:I10"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>

--- a/input data/Template.xlsx
+++ b/input data/Template.xlsx
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -191,6 +191,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,9 +493,9 @@
     <col min="2" max="2" width="21.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="27" style="4" customWidth="1"/>
     <col min="8" max="9" width="6.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -510,7 +519,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
@@ -520,7 +529,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -535,7 +544,7 @@
     </row>
     <row r="6" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10">
-        <v>43431</v>
+        <v>43445</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -546,7 +555,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -559,10 +568,10 @@
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
@@ -571,15 +580,15 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6"/>
@@ -589,6 +598,1777 @@
       <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/input data/Template.xlsx
+++ b/input data/Template.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,13 +29,7 @@
     <t>Утверждаю</t>
   </si>
   <si>
-    <t xml:space="preserve">Гл. инженер УЭ ДУП ООО «Би.Си.Си.» </t>
-  </si>
-  <si>
     <t xml:space="preserve">_____________________________  Андрющенко Д.А. </t>
-  </si>
-  <si>
-    <t>Перечень планируемых работ УЭ ДУП ООО «Би. Си. Си.» на объектах КЗС</t>
   </si>
   <si>
     <t>Наименование организации</t>
@@ -69,6 +63,12 @@
   </si>
   <si>
     <t>2-я смена</t>
+  </si>
+  <si>
+    <t>Перечень планируемых работ УЭ ДЭ ООО «Би. Си. Си.» на объектах КЗС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гл. инженер УЭ ДЭ ООО «Би.Си.Си.» </t>
   </si>
 </sst>
 </file>
@@ -174,10 +174,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -192,10 +195,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,7 +484,7 @@
   <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:I5"/>
+      <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,110 +493,110 @@
     <col min="2" max="2" width="21.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="27" style="4" customWidth="1"/>
     <col min="8" max="9" width="6.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>43445</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>43445</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="6" t="s">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="14" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="I9" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">

--- a/input data/Template.xlsx
+++ b/input data/Template.xlsx
@@ -78,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;на&quot;\ [$-FC19]\«d\»\ mmmm\ yyyy\ &quot;года&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +109,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -157,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -194,9 +187,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -484,7 +474,7 @@
   <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,13 +555,13 @@
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="8" t="s">
         <v>7</v>
       </c>
@@ -584,7 +574,7 @@
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
@@ -2386,5 +2376,6 @@
     <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input data/Template.xlsx
+++ b/input data/Template.xlsx
@@ -474,14 +474,14 @@
   <dimension ref="A1:I170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="75.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="6" customWidth="1"/>

--- a/input data/Template.xlsx
+++ b/input data/Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">Гл. инженер УЭ ДЭ ООО «Би.Си.Си.» </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование отдела, начальник (руководитель) отдела, конт. телефон </t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -146,11 +149,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -189,6 +218,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -471,10 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I170"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,11 +523,12 @@
     <col min="4" max="4" width="46.21875" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27" style="4" customWidth="1"/>
-    <col min="8" max="9" width="6.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="6.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
@@ -498,8 +537,9 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
@@ -508,8 +548,9 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
@@ -518,8 +559,9 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -531,8 +573,9 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>43445</v>
       </c>
@@ -544,8 +587,9 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -562,15 +606,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -581,15 +628,16 @@
       <c r="F9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -599,8 +647,9 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -610,8 +659,9 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -621,8 +671,9 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -632,8 +683,9 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -643,8 +695,9 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -654,8 +707,9 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -665,8 +719,9 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -676,8 +731,9 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -687,8 +743,9 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -698,8 +755,9 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -709,8 +767,9 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -720,8 +779,9 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -731,8 +791,9 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -742,8 +803,9 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -753,8 +815,9 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -764,8 +827,9 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -775,8 +839,9 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -786,8 +851,9 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -797,8 +863,9 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -808,8 +875,9 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -819,8 +887,9 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -830,8 +899,9 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -841,8 +911,9 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -852,8 +923,9 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -863,8 +935,9 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -874,8 +947,9 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -885,8 +959,9 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -896,8 +971,9 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -907,8 +983,9 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -918,8 +995,9 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -929,8 +1007,9 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -940,8 +1019,9 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -951,8 +1031,9 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -962,8 +1043,9 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -973,8 +1055,9 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -984,8 +1067,9 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -995,8 +1079,9 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -1006,8 +1091,9 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -1017,8 +1103,9 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -1028,8 +1115,9 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -1039,8 +1127,9 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -1050,8 +1139,9 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -1061,8 +1151,9 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -1072,8 +1163,9 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -1083,8 +1175,9 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -1094,8 +1187,9 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -1105,8 +1199,9 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -1116,8 +1211,9 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -1127,8 +1223,9 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -1138,8 +1235,9 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -1149,8 +1247,9 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -1160,8 +1259,9 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -1171,8 +1271,9 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -1182,8 +1283,9 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -1193,8 +1295,9 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -1204,8 +1307,9 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -1215,8 +1319,9 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -1226,8 +1331,9 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -1237,8 +1343,9 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -1248,8 +1355,9 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -1259,8 +1367,9 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -1270,8 +1379,9 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -1281,8 +1391,9 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -1292,8 +1403,9 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -1303,8 +1415,9 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -1314,8 +1427,9 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -1325,8 +1439,9 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -1336,8 +1451,9 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -1347,8 +1463,9 @@
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -1358,8 +1475,9 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -1369,8 +1487,9 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -1380,8 +1499,9 @@
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -1391,8 +1511,9 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -1402,8 +1523,9 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -1413,8 +1535,9 @@
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -1424,8 +1547,9 @@
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -1435,8 +1559,9 @@
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -1446,8 +1571,9 @@
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -1457,8 +1583,9 @@
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -1468,8 +1595,9 @@
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -1479,8 +1607,9 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -1490,8 +1619,9 @@
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -1501,8 +1631,9 @@
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -1512,8 +1643,9 @@
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -1523,8 +1655,9 @@
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -1534,8 +1667,9 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -1545,8 +1679,9 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -1556,8 +1691,9 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -1567,8 +1703,9 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -1578,8 +1715,9 @@
       <c r="G99"/>
       <c r="H99"/>
       <c r="I99"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -1589,8 +1727,9 @@
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -1600,8 +1739,9 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -1611,8 +1751,9 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -1622,8 +1763,9 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -1633,8 +1775,9 @@
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -1644,8 +1787,9 @@
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -1655,8 +1799,9 @@
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -1666,8 +1811,9 @@
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -1677,8 +1823,9 @@
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -1688,8 +1835,9 @@
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -1699,8 +1847,9 @@
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -1710,8 +1859,9 @@
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -1721,8 +1871,9 @@
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -1732,8 +1883,9 @@
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -1743,8 +1895,9 @@
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -1754,8 +1907,9 @@
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -1765,8 +1919,9 @@
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -1776,8 +1931,9 @@
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -1787,8 +1943,9 @@
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -1798,8 +1955,9 @@
       <c r="G119"/>
       <c r="H119"/>
       <c r="I119"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -1809,8 +1967,9 @@
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -1820,8 +1979,9 @@
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -1831,8 +1991,9 @@
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -1842,8 +2003,9 @@
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -1853,8 +2015,9 @@
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -1864,8 +2027,9 @@
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -1875,8 +2039,9 @@
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -1886,8 +2051,9 @@
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -1897,8 +2063,9 @@
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -1908,8 +2075,9 @@
       <c r="G129"/>
       <c r="H129"/>
       <c r="I129"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -1919,8 +2087,9 @@
       <c r="G130"/>
       <c r="H130"/>
       <c r="I130"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -1930,8 +2099,9 @@
       <c r="G131"/>
       <c r="H131"/>
       <c r="I131"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -1941,8 +2111,9 @@
       <c r="G132"/>
       <c r="H132"/>
       <c r="I132"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -1952,8 +2123,9 @@
       <c r="G133"/>
       <c r="H133"/>
       <c r="I133"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -1963,8 +2135,9 @@
       <c r="G134"/>
       <c r="H134"/>
       <c r="I134"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -1974,8 +2147,9 @@
       <c r="G135"/>
       <c r="H135"/>
       <c r="I135"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -1985,8 +2159,9 @@
       <c r="G136"/>
       <c r="H136"/>
       <c r="I136"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -1996,8 +2171,9 @@
       <c r="G137"/>
       <c r="H137"/>
       <c r="I137"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -2007,8 +2183,9 @@
       <c r="G138"/>
       <c r="H138"/>
       <c r="I138"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -2018,8 +2195,9 @@
       <c r="G139"/>
       <c r="H139"/>
       <c r="I139"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -2029,8 +2207,9 @@
       <c r="G140"/>
       <c r="H140"/>
       <c r="I140"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J140"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -2040,8 +2219,9 @@
       <c r="G141"/>
       <c r="H141"/>
       <c r="I141"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J141"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -2051,8 +2231,9 @@
       <c r="G142"/>
       <c r="H142"/>
       <c r="I142"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J142"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -2062,8 +2243,9 @@
       <c r="G143"/>
       <c r="H143"/>
       <c r="I143"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J143"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -2073,8 +2255,9 @@
       <c r="G144"/>
       <c r="H144"/>
       <c r="I144"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J144"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -2084,8 +2267,9 @@
       <c r="G145"/>
       <c r="H145"/>
       <c r="I145"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J145"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -2095,8 +2279,9 @@
       <c r="G146"/>
       <c r="H146"/>
       <c r="I146"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J146"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -2106,8 +2291,9 @@
       <c r="G147"/>
       <c r="H147"/>
       <c r="I147"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J147"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -2117,8 +2303,9 @@
       <c r="G148"/>
       <c r="H148"/>
       <c r="I148"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J148"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -2128,8 +2315,9 @@
       <c r="G149"/>
       <c r="H149"/>
       <c r="I149"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J149"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -2139,8 +2327,9 @@
       <c r="G150"/>
       <c r="H150"/>
       <c r="I150"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J150"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -2150,8 +2339,9 @@
       <c r="G151"/>
       <c r="H151"/>
       <c r="I151"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J151"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -2161,8 +2351,9 @@
       <c r="G152"/>
       <c r="H152"/>
       <c r="I152"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J152"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -2172,8 +2363,9 @@
       <c r="G153"/>
       <c r="H153"/>
       <c r="I153"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J153"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -2183,8 +2375,9 @@
       <c r="G154"/>
       <c r="H154"/>
       <c r="I154"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J154"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -2194,8 +2387,9 @@
       <c r="G155"/>
       <c r="H155"/>
       <c r="I155"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J155"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -2205,8 +2399,9 @@
       <c r="G156"/>
       <c r="H156"/>
       <c r="I156"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J156"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -2216,8 +2411,9 @@
       <c r="G157"/>
       <c r="H157"/>
       <c r="I157"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J157"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -2227,8 +2423,9 @@
       <c r="G158"/>
       <c r="H158"/>
       <c r="I158"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J158"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -2238,8 +2435,9 @@
       <c r="G159"/>
       <c r="H159"/>
       <c r="I159"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J159"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -2249,8 +2447,9 @@
       <c r="G160"/>
       <c r="H160"/>
       <c r="I160"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J160"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -2260,8 +2459,9 @@
       <c r="G161"/>
       <c r="H161"/>
       <c r="I161"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J161"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -2271,8 +2471,9 @@
       <c r="G162"/>
       <c r="H162"/>
       <c r="I162"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J162"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -2282,8 +2483,9 @@
       <c r="G163"/>
       <c r="H163"/>
       <c r="I163"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J163"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -2293,8 +2495,9 @@
       <c r="G164"/>
       <c r="H164"/>
       <c r="I164"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J164"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -2304,8 +2507,9 @@
       <c r="G165"/>
       <c r="H165"/>
       <c r="I165"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J165"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -2315,8 +2519,9 @@
       <c r="G166"/>
       <c r="H166"/>
       <c r="I166"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J166"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -2326,8 +2531,9 @@
       <c r="G167"/>
       <c r="H167"/>
       <c r="I167"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J167"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -2337,8 +2543,9 @@
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J168"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -2348,8 +2555,9 @@
       <c r="G169"/>
       <c r="H169"/>
       <c r="I169"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J169"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -2359,23 +2567,25 @@
       <c r="G170"/>
       <c r="H170"/>
       <c r="I170"/>
+      <c r="J170"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
+  <mergeCells count="13">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input data/Template.xlsx
+++ b/input data/Template.xlsx
@@ -512,19 +512,18 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="75.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="85.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.77734375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="4" customWidth="1"/>
     <col min="9" max="10" width="6.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -589,7 +588,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -617,7 +616,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2586,6 +2585,6 @@
     <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input data/Template.xlsx
+++ b/input data/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16452" windowHeight="5304"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -511,8 +511,8 @@
   </sheetPr>
   <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/input data/Template.xlsx
+++ b/input data/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2172" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2175" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -511,23 +511,23 @@
   </sheetPr>
   <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="85.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.77734375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="6.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="85.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="6.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -574,7 +574,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>43445</v>
       </c>
@@ -588,7 +588,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -616,7 +616,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -636,7 +636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -648,7 +648,7 @@
       <c r="I10"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -660,7 +660,7 @@
       <c r="I11"/>
       <c r="J11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -672,7 +672,7 @@
       <c r="I12"/>
       <c r="J12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -684,7 +684,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -696,7 +696,7 @@
       <c r="I14"/>
       <c r="J14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -708,7 +708,7 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -720,7 +720,7 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -732,7 +732,7 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -744,7 +744,7 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -756,7 +756,7 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -768,7 +768,7 @@
       <c r="I20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -780,7 +780,7 @@
       <c r="I21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -792,7 +792,7 @@
       <c r="I22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -804,7 +804,7 @@
       <c r="I23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -816,7 +816,7 @@
       <c r="I24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -828,7 +828,7 @@
       <c r="I25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -840,7 +840,7 @@
       <c r="I26"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -852,7 +852,7 @@
       <c r="I27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -864,7 +864,7 @@
       <c r="I28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -876,7 +876,7 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -888,7 +888,7 @@
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -900,7 +900,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -912,7 +912,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -924,7 +924,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -936,7 +936,7 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -948,7 +948,7 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -960,7 +960,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -972,7 +972,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -984,7 +984,7 @@
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -996,7 +996,7 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -1008,7 +1008,7 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1020,7 +1020,7 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -1032,7 +1032,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1044,7 +1044,7 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -1056,7 +1056,7 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1068,7 +1068,7 @@
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -1080,7 +1080,7 @@
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -1092,7 +1092,7 @@
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -1104,7 +1104,7 @@
       <c r="I48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -1116,7 +1116,7 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -1128,7 +1128,7 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -1140,7 +1140,7 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -1152,7 +1152,7 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -1164,7 +1164,7 @@
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -1176,7 +1176,7 @@
       <c r="I54"/>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -1188,7 +1188,7 @@
       <c r="I55"/>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -1200,7 +1200,7 @@
       <c r="I56"/>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -1212,7 +1212,7 @@
       <c r="I57"/>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -1224,7 +1224,7 @@
       <c r="I58"/>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -1236,7 +1236,7 @@
       <c r="I59"/>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -1248,7 +1248,7 @@
       <c r="I60"/>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -1260,7 +1260,7 @@
       <c r="I61"/>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -1272,7 +1272,7 @@
       <c r="I62"/>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -1284,7 +1284,7 @@
       <c r="I63"/>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -1296,7 +1296,7 @@
       <c r="I64"/>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -1308,7 +1308,7 @@
       <c r="I65"/>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -1320,7 +1320,7 @@
       <c r="I66"/>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -1332,7 +1332,7 @@
       <c r="I67"/>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -1344,7 +1344,7 @@
       <c r="I68"/>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -1356,7 +1356,7 @@
       <c r="I69"/>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -1368,7 +1368,7 @@
       <c r="I70"/>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -1380,7 +1380,7 @@
       <c r="I71"/>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -1392,7 +1392,7 @@
       <c r="I72"/>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -1404,7 +1404,7 @@
       <c r="I73"/>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -1416,7 +1416,7 @@
       <c r="I74"/>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -1428,7 +1428,7 @@
       <c r="I75"/>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -1440,7 +1440,7 @@
       <c r="I76"/>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -1452,7 +1452,7 @@
       <c r="I77"/>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -1464,7 +1464,7 @@
       <c r="I78"/>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -1476,7 +1476,7 @@
       <c r="I79"/>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -1488,7 +1488,7 @@
       <c r="I80"/>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -1500,7 +1500,7 @@
       <c r="I81"/>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -1512,7 +1512,7 @@
       <c r="I82"/>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -1524,7 +1524,7 @@
       <c r="I83"/>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -1536,7 +1536,7 @@
       <c r="I84"/>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -1548,7 +1548,7 @@
       <c r="I85"/>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -1560,7 +1560,7 @@
       <c r="I86"/>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -1572,7 +1572,7 @@
       <c r="I87"/>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -1584,7 +1584,7 @@
       <c r="I88"/>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -1596,7 +1596,7 @@
       <c r="I89"/>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -1608,7 +1608,7 @@
       <c r="I90"/>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -1620,7 +1620,7 @@
       <c r="I91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -1632,7 +1632,7 @@
       <c r="I92"/>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -1644,7 +1644,7 @@
       <c r="I93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -1656,7 +1656,7 @@
       <c r="I94"/>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -1668,7 +1668,7 @@
       <c r="I95"/>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -1680,7 +1680,7 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -1692,7 +1692,7 @@
       <c r="I97"/>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -1704,7 +1704,7 @@
       <c r="I98"/>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -1716,7 +1716,7 @@
       <c r="I99"/>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -1728,7 +1728,7 @@
       <c r="I100"/>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -1740,7 +1740,7 @@
       <c r="I101"/>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -1752,7 +1752,7 @@
       <c r="I102"/>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -1764,7 +1764,7 @@
       <c r="I103"/>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -1776,7 +1776,7 @@
       <c r="I104"/>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -1788,7 +1788,7 @@
       <c r="I105"/>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -1800,7 +1800,7 @@
       <c r="I106"/>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -1812,7 +1812,7 @@
       <c r="I107"/>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -1824,7 +1824,7 @@
       <c r="I108"/>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -1836,7 +1836,7 @@
       <c r="I109"/>
       <c r="J109"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -1848,7 +1848,7 @@
       <c r="I110"/>
       <c r="J110"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -1860,7 +1860,7 @@
       <c r="I111"/>
       <c r="J111"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -1872,7 +1872,7 @@
       <c r="I112"/>
       <c r="J112"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -1884,7 +1884,7 @@
       <c r="I113"/>
       <c r="J113"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -1896,7 +1896,7 @@
       <c r="I114"/>
       <c r="J114"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -1908,7 +1908,7 @@
       <c r="I115"/>
       <c r="J115"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -1920,7 +1920,7 @@
       <c r="I116"/>
       <c r="J116"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -1932,7 +1932,7 @@
       <c r="I117"/>
       <c r="J117"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -1944,7 +1944,7 @@
       <c r="I118"/>
       <c r="J118"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -1956,7 +1956,7 @@
       <c r="I119"/>
       <c r="J119"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -1968,7 +1968,7 @@
       <c r="I120"/>
       <c r="J120"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -1980,7 +1980,7 @@
       <c r="I121"/>
       <c r="J121"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -1992,7 +1992,7 @@
       <c r="I122"/>
       <c r="J122"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -2004,7 +2004,7 @@
       <c r="I123"/>
       <c r="J123"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -2016,7 +2016,7 @@
       <c r="I124"/>
       <c r="J124"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -2028,7 +2028,7 @@
       <c r="I125"/>
       <c r="J125"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -2040,7 +2040,7 @@
       <c r="I126"/>
       <c r="J126"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -2052,7 +2052,7 @@
       <c r="I127"/>
       <c r="J127"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -2064,7 +2064,7 @@
       <c r="I128"/>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -2076,7 +2076,7 @@
       <c r="I129"/>
       <c r="J129"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -2088,7 +2088,7 @@
       <c r="I130"/>
       <c r="J130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -2100,7 +2100,7 @@
       <c r="I131"/>
       <c r="J131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -2112,7 +2112,7 @@
       <c r="I132"/>
       <c r="J132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -2124,7 +2124,7 @@
       <c r="I133"/>
       <c r="J133"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -2136,7 +2136,7 @@
       <c r="I134"/>
       <c r="J134"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -2148,7 +2148,7 @@
       <c r="I135"/>
       <c r="J135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -2160,7 +2160,7 @@
       <c r="I136"/>
       <c r="J136"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -2172,7 +2172,7 @@
       <c r="I137"/>
       <c r="J137"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -2184,7 +2184,7 @@
       <c r="I138"/>
       <c r="J138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -2196,7 +2196,7 @@
       <c r="I139"/>
       <c r="J139"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -2208,7 +2208,7 @@
       <c r="I140"/>
       <c r="J140"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -2220,7 +2220,7 @@
       <c r="I141"/>
       <c r="J141"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -2232,7 +2232,7 @@
       <c r="I142"/>
       <c r="J142"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -2244,7 +2244,7 @@
       <c r="I143"/>
       <c r="J143"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -2256,7 +2256,7 @@
       <c r="I144"/>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -2268,7 +2268,7 @@
       <c r="I145"/>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -2280,7 +2280,7 @@
       <c r="I146"/>
       <c r="J146"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -2292,7 +2292,7 @@
       <c r="I147"/>
       <c r="J147"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -2304,7 +2304,7 @@
       <c r="I148"/>
       <c r="J148"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -2316,7 +2316,7 @@
       <c r="I149"/>
       <c r="J149"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -2328,7 +2328,7 @@
       <c r="I150"/>
       <c r="J150"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -2340,7 +2340,7 @@
       <c r="I151"/>
       <c r="J151"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -2352,7 +2352,7 @@
       <c r="I152"/>
       <c r="J152"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -2364,7 +2364,7 @@
       <c r="I153"/>
       <c r="J153"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -2376,7 +2376,7 @@
       <c r="I154"/>
       <c r="J154"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -2388,7 +2388,7 @@
       <c r="I155"/>
       <c r="J155"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -2400,7 +2400,7 @@
       <c r="I156"/>
       <c r="J156"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -2412,7 +2412,7 @@
       <c r="I157"/>
       <c r="J157"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -2424,7 +2424,7 @@
       <c r="I158"/>
       <c r="J158"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -2436,7 +2436,7 @@
       <c r="I159"/>
       <c r="J159"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -2448,7 +2448,7 @@
       <c r="I160"/>
       <c r="J160"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -2460,7 +2460,7 @@
       <c r="I161"/>
       <c r="J161"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -2472,7 +2472,7 @@
       <c r="I162"/>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -2484,7 +2484,7 @@
       <c r="I163"/>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -2496,7 +2496,7 @@
       <c r="I164"/>
       <c r="J164"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -2508,7 +2508,7 @@
       <c r="I165"/>
       <c r="J165"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -2520,7 +2520,7 @@
       <c r="I166"/>
       <c r="J166"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -2532,7 +2532,7 @@
       <c r="I167"/>
       <c r="J167"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -2544,7 +2544,7 @@
       <c r="I168"/>
       <c r="J168"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -2556,7 +2556,7 @@
       <c r="I169"/>
       <c r="J169"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -2585,6 +2585,6 @@
     <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>